--- a/biology/Botanique/Althorniidae/Althorniidae.xlsx
+++ b/biology/Botanique/Althorniidae/Althorniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Althorniidae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Labyrinthulea et de l’ordre des Thraustochytriida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Althornia, dont l'origine est obscure.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Althornia est monotypique (Althornia crouchii) et se distingue des autres thraustochytrides par l'absence d'un réseau ectoplasmique et de son sagenétosome[note 1] associé, ce qui fait que les cellules existent sous une forme flottante, non attachée. La paroi cellulaire est composée d'écailles et le mode de zoosporulation[1] est quelque peu similaire à celui du genre Thraustochytrium. Sur la base d'une classification récente et de la probabilité que la souche type ait été perdue, Althornia est devenu un membre douteux des Thraustochytriidae sensu stricto[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Althornia est monotypique (Althornia crouchii) et se distingue des autres thraustochytrides par l'absence d'un réseau ectoplasmique et de son sagenétosome[note 1] associé, ce qui fait que les cellules existent sous une forme flottante, non attachée. La paroi cellulaire est composée d'écailles et le mode de zoosporulation est quelque peu similaire à celui du genre Thraustochytrium. Sur la base d'une classification récente et de la probabilité que la souche type ait été perdue, Althornia est devenu un membre douteux des Thraustochytriidae sensu stricto.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Althornia, si tant est que son existence soit confirmée, est un genre planctonique.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 septembre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 septembre 2022) :
 Althornia Jones &amp; Alderman, 1972</t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Althorniidae Cavalier-Smith, 2012 [4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Althorniidae Cavalier-Smith, 2012 .
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jones, E.B.G.; Alderman, D.J. 1971. Althornia crouchii gen. et sp. nov., a marine biflagellate fungus. Nova Hedwigia  (ISSN 0029-5035 et 2363-7188). 21(3-4):381-400</t>
         </is>
